--- a/census_profile_lut_legend.xlsx
+++ b/census_profile_lut_legend.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Census 2021\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\GitHub\census_canada_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785ACB32-4413-4C4C-8099-85AC67C21977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B497B38-A3AF-48DF-B728-FD2D82C6E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{41C174C0-B72A-47C9-98F0-F7D297B6B3B3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1070">
   <si>
     <t>Population percentage change, 2016 to 2021</t>
   </si>
@@ -2954,6 +2954,297 @@
   </si>
   <si>
     <t xml:space="preserve">      Other languages, n.i.e.</t>
+  </si>
+  <si>
+    <t>Total - Indigenous identity for the population in private households - 25% sample data (38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Indigenous identity (39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Single Indigenous responses (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      First Nations (North American Indian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Métis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Inuk (Inuit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Multiple Indigenous responses (41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Indigenous responses not included elsewhere (42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Non-Indigenous identity</t>
+  </si>
+  <si>
+    <t>Total - Registered or Treaty Indian status for the population in private households - 25% sample data (38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Registered or Treaty Indian (43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not a Registered or Treaty Indian</t>
+  </si>
+  <si>
+    <t>Total - Private households by tenure - 25% sample data (44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Renter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dwelling provided by the local government, First Nation or Indian band</t>
+  </si>
+  <si>
+    <t>Total - Occupied private dwellings by condominium status - 25% sample data (45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Condominium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not condominium</t>
+  </si>
+  <si>
+    <t>Total - Occupied private dwellings by number of bedrooms - 25% sample data (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 bedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 bedrooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 or more bedrooms</t>
+  </si>
+  <si>
+    <t>Total - Occupied private dwellings by number of rooms - 25% sample data (47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 to 4 rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 or more rooms</t>
+  </si>
+  <si>
+    <t>Average number of rooms per dwelling</t>
+  </si>
+  <si>
+    <t>Total - Private households by number of persons per room - 25% sample data (48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  One person or fewer per room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  More than one person per room</t>
+  </si>
+  <si>
+    <t>Total - Private households by housing suitability - 25% sample data (49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Suitable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not suitable</t>
+  </si>
+  <si>
+    <t>Total - Occupied private dwellings by period of construction - 25% sample data (50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1960 or before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1961 to 1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1981 to 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1991 to 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2001 to 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2006 to 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2011 to 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2016 to 2021 (51)</t>
+  </si>
+  <si>
+    <t>Total - Occupied private dwellings by dwelling condition - 25% sample data (52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Only regular maintenance and minor repairs needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Major repairs needed</t>
+  </si>
+  <si>
+    <t>Total - Private households by number of household maintainers - 25% sample data (53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  One-maintainer household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Two-maintainer household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Three-or-more-maintainer household</t>
+  </si>
+  <si>
+    <t>Total - Private households by age of primary household maintainers - 25% sample data (54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15 to 24 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  25 to 34 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35 to 44 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  45 to 54 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  55 to 64 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  65 to 74 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  75 to 84 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  85 years and over</t>
+  </si>
+  <si>
+    <t>Total - Owner and tenant households with household total income greater than zero, in non-farm, non-reserve private dwellings by shelter-cost-to-income ratio - 25% sample data (55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spending less than 30% of income on shelter costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spending 30% or more of income on shelter costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30% to less than 100%</t>
+  </si>
+  <si>
+    <t>Total - Occupied private dwellings by housing indicators - 25% sample data (56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total - Households 'spending 30% or more of income on shelter costs' or 'not suitable' or 'major repairs needed'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Spending 30% or more of income on shelter costs only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Not suitable only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Major repairs needed only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Spending 30% or more of income on shelter costs' and 'not suitable'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Spending 30% or more of income on shelter costs' and 'major repairs needed'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Not suitable' and 'major repairs needed'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Spending 30% or more of income on shelter costs' and 'not suitable' and 'major repairs needed'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Acceptable housing</t>
+  </si>
+  <si>
+    <t>Total - Owner and tenant households with household total income greater than zero and shelter-cost-to-income ratio less than 100%, in non-farm, non-reserve private dwellings - 25% sample data (57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  In core need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not in core need</t>
+  </si>
+  <si>
+    <t>Total - Owner households in non-farm, non-reserve private dwellings - 25% sample data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % of owner households with a mortgage (58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % of owner households spending 30% or more of its income on shelter costs (55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % in core housing need (57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Median monthly shelter costs for owned dwellings ($) (59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Average monthly shelter costs for owned dwellings ($) (59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Median value of dwellings ($) (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Average value of dwellings ($) (60)</t>
+  </si>
+  <si>
+    <t>Total - Tenant households in non-farm, non-reserve private dwellings - 25% sample data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % of tenant households in subsidized housing (61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % of tenant households spending 30% or more of its income on shelter costs (55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Median monthly shelter costs for rented dwellings ($) (59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Average monthly shelter costs for rented dwellings ($) (59)</t>
+  </si>
+  <si>
+    <t>Total - Households living in a dwelling provided by the local government, First Nation or Indian band in non-farm private dwellings - 25% sample data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  % of households living in a dwelling provided by the local government, First Nation or Indian band spending more than 30% on shelter costs (55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Median monthly shelter costs for dwellings provided by local government, First Nation or Indian band ($) (59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Average monthly shelter costs for dwellings provided by local government, First Nation or Indian band ($) (59)</t>
   </si>
 </sst>
 </file>
@@ -3305,7 +3596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D284184-B954-4C1E-891B-C2603A100391}">
-  <dimension ref="A1:B1388"/>
+  <dimension ref="A1:B1486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14419,6 +14710,790 @@
         <v>972</v>
       </c>
     </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>1388</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>1389</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>1390</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>1391</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>1392</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>1393</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>1394</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>1395</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>1396</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>1397</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>1398</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>1399</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>1400</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>1401</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>1402</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>1403</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>1404</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>1405</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>1406</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>1407</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>1408</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>1409</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>1410</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>1411</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>1412</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>1413</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>1414</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>1415</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>1416</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>1417</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>1418</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>1419</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>1420</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>1421</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>1422</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>1423</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>1424</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>1425</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>1426</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>1427</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>1428</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>1429</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>1430</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>1431</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>1432</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>1433</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>1434</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>1435</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>1436</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>1437</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>1438</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>1439</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>1440</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>1441</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>1442</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>1443</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>1444</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>1445</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>1446</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>1447</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>1448</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>1449</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>1450</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>1451</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>1452</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>1453</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>1454</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>1455</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>1456</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>1457</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>1458</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>1459</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>1460</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>1461</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>1462</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>1463</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>1464</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>1465</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>1466</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>1467</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>1468</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>1469</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>1470</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>1471</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>1472</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>1473</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>1474</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>1475</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>1476</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>1477</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>1478</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>1479</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>1480</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>1481</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>1482</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>1483</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>1484</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>1485</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>1069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
